--- a/Overall Population Results.xlsx
+++ b/Overall Population Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cilianaaman/Documents/Article/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04A4E9-4BBE-3148-9C8F-73BDDFE4CF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A7332-77BF-DC48-89AA-260E8E6D005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{27554C5A-46DD-284F-877F-5BC6B31491BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="2" xr2:uid="{27554C5A-46DD-284F-877F-5BC6B31491BE}"/>
   </bookViews>
   <sheets>
     <sheet name="MLR 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="864">
   <si>
     <t>rsID</t>
   </si>
@@ -2630,12 +2630,6 @@
   </si>
   <si>
     <t>CI Upper UACR</t>
-  </si>
-  <si>
-    <t>rs28490558</t>
-  </si>
-  <si>
-    <t>ANAPC2</t>
   </si>
 </sst>
 </file>
@@ -2720,7 +2714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2732,8 +2726,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3070,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD02582-80E5-BA4C-BC4C-7B9AAD956A0E}">
   <dimension ref="A1:J425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3242,36 +3234,36 @@
         <v>1.950054758957409E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="B6" s="6">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.24829999999999999</v>
-      </c>
-      <c r="G6" s="6">
-        <v>-4.7284950239999998E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>7.2619399999999997E-3</v>
-      </c>
-      <c r="I6" s="6">
-        <v>-3.7194790999999998E-2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1.4519405628499999E-2</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.5373526933692039E-3</v>
+      </c>
+      <c r="H6">
+        <v>2.859873134829801E-13</v>
+      </c>
+      <c r="I6">
+        <v>1.1246506277809991E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.950054758957409E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -16692,7 +16684,7 @@
   <dimension ref="A1:N367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16917,48 +16909,48 @@
         <v>2.389297077694199E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="B6" s="6">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.24829999999999999</v>
-      </c>
-      <c r="G6" s="6">
-        <v>-4.7284950239999998E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>7.2619399999999997E-3</v>
-      </c>
-      <c r="I6" s="6">
-        <v>-3.7194790999999998E-2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1.4519405628499999E-2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>-2.3931999999999998E-3</v>
-      </c>
-      <c r="L6" s="6">
-        <v>8.3175520000000003E-2</v>
-      </c>
-      <c r="M6" s="6">
-        <v>-1.9469999999999999E-4</v>
-      </c>
-      <c r="N6" s="6">
-        <v>3.1394999999999999E-3</v>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.5373526933692039E-3</v>
+      </c>
+      <c r="H6">
+        <v>2.859873134829801E-13</v>
+      </c>
+      <c r="I6">
+        <v>1.1246506277809991E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.950054758957409E-3</v>
+      </c>
+      <c r="K6">
+        <v>-1.5877589661168129E-3</v>
+      </c>
+      <c r="L6">
+        <v>0.43393225645309808</v>
+      </c>
+      <c r="M6">
+        <v>-5.5648150099278249E-3</v>
+      </c>
+      <c r="N6">
+        <v>2.389297077694199E-3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -32854,8 +32846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201F7B2-BD51-E745-BE34-90CA55FA088B}">
   <dimension ref="A1:O189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32982,7 +32974,7 @@
       <c r="G3" s="4">
         <v>2.1900000000000001E-3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>2.4100000000000001E-25</v>
       </c>
       <c r="I3" s="4">
@@ -33027,7 +33019,7 @@
       <c r="G4" s="4">
         <v>-3.0500000000000002E-3</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>1.2E-47</v>
       </c>
       <c r="I4" s="4">
@@ -33072,7 +33064,7 @@
       <c r="G5" s="4">
         <v>1.3359999999999999E-3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>2.17E-10</v>
       </c>
       <c r="I5" s="4">
@@ -33123,7 +33115,7 @@
       <c r="I6" s="4">
         <v>-8.3000000000000001E-4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>-1.1999999999999999E-6</v>
       </c>
       <c r="K6" s="4">
@@ -33174,7 +33166,7 @@
       <c r="K7" s="4">
         <v>8.5990000000000007E-3</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>1.8300000000000001E-5</v>
       </c>
       <c r="M7" s="4">
@@ -33297,7 +33289,7 @@
       <c r="G10" s="4">
         <v>-2.8600000000000001E-3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>6.61E-42</v>
       </c>
       <c r="I10" s="4">
@@ -33342,7 +33334,7 @@
       <c r="G11" s="4">
         <v>2.5560000000000001E-3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>6.0599999999999997E-34</v>
       </c>
       <c r="I11" s="4">
@@ -33387,7 +33379,7 @@
       <c r="G12" s="4">
         <v>1.317E-3</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>3.9099999999999999E-10</v>
       </c>
       <c r="I12" s="4">
@@ -33432,7 +33424,7 @@
       <c r="G13" s="4">
         <v>4.4279999999999996E-3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>1.9399999999999999E-98</v>
       </c>
       <c r="I13" s="4">
@@ -33444,7 +33436,7 @@
       <c r="K13" s="4">
         <v>-9.3399999999999993E-3</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>2.9699999999999999E-6</v>
       </c>
       <c r="M13" s="4">
@@ -33477,7 +33469,7 @@
       <c r="G14" s="4">
         <v>1.691E-3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>9.6400000000000008E-16</v>
       </c>
       <c r="I14" s="4">
@@ -33522,7 +33514,7 @@
       <c r="G15" s="4">
         <v>2.2290000000000001E-3</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>3.1500000000000003E-26</v>
       </c>
       <c r="I15" s="4">
@@ -33567,7 +33559,7 @@
       <c r="G16" s="4">
         <v>1.0009999999999999E-3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>1.9599999999999999E-6</v>
       </c>
       <c r="I16" s="4">
@@ -33612,7 +33604,7 @@
       <c r="G17" s="4">
         <v>1.8990000000000001E-3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>1.9900000000000001E-19</v>
       </c>
       <c r="I17" s="4">
@@ -33669,7 +33661,7 @@
       <c r="K18" s="4">
         <v>-9.9799999999999993E-3</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>8.6600000000000005E-7</v>
       </c>
       <c r="M18" s="4">
@@ -33702,7 +33694,7 @@
       <c r="G19" s="4">
         <v>-2.8400000000000001E-3</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>1.2899999999999999E-41</v>
       </c>
       <c r="I19" s="4">
@@ -33747,7 +33739,7 @@
       <c r="G20" s="4">
         <v>3.7429999999999998E-3</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>6.7599999999999998E-71</v>
       </c>
       <c r="I20" s="4">
@@ -33762,7 +33754,7 @@
       <c r="L20" s="4">
         <v>4.9750999999999997E-2</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>4.33E-6</v>
       </c>
       <c r="N20" s="4">
@@ -33792,7 +33784,7 @@
       <c r="G21" s="4">
         <v>3.7620000000000002E-3</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>1.8900000000000001E-71</v>
       </c>
       <c r="I21" s="4">
@@ -33804,7 +33796,7 @@
       <c r="K21" s="4">
         <v>-8.4899999999999993E-3</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>2.5599999999999999E-5</v>
       </c>
       <c r="M21" s="4">
@@ -33837,7 +33829,7 @@
       <c r="G22" s="4">
         <v>1.0070000000000001E-3</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>1.7E-6</v>
       </c>
       <c r="I22" s="4">
@@ -33927,7 +33919,7 @@
       <c r="G24" s="4">
         <v>-2.15E-3</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>1.4499999999999999E-24</v>
       </c>
       <c r="I24" s="4">
@@ -33972,7 +33964,7 @@
       <c r="G25" s="4">
         <v>2.385E-3</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>9.3199999999999999E-30</v>
       </c>
       <c r="I25" s="4">
@@ -34017,7 +34009,7 @@
       <c r="G26" s="4">
         <v>-1.4499999999999999E-3</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>5.83E-12</v>
       </c>
       <c r="I26" s="4">
@@ -34062,7 +34054,7 @@
       <c r="G27" s="4">
         <v>1.1540000000000001E-3</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>4.2799999999999999E-8</v>
       </c>
       <c r="I27" s="4">
@@ -34107,7 +34099,7 @@
       <c r="G28" s="4">
         <v>1.7589999999999999E-3</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>6.4600000000000004E-17</v>
       </c>
       <c r="I28" s="4">
@@ -34152,7 +34144,7 @@
       <c r="G29" s="4">
         <v>-1.1900000000000001E-3</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>1.3799999999999999E-8</v>
       </c>
       <c r="I29" s="4">
@@ -34203,7 +34195,7 @@
       <c r="I30" s="4">
         <v>-8.4000000000000003E-4</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>-1.5999999999999999E-5</v>
       </c>
       <c r="K30" s="4">
@@ -34215,7 +34207,7 @@
       <c r="M30" s="4">
         <v>-8.0599999999999995E-3</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="4">
         <v>-5.5999999999999999E-5</v>
       </c>
       <c r="O30" s="4"/>
@@ -34242,7 +34234,7 @@
       <c r="G31" s="4">
         <v>1.5280000000000001E-3</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>3.92E-13</v>
       </c>
       <c r="I31" s="4">
@@ -34293,13 +34285,13 @@
       <c r="I32" s="4">
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>-7.7999999999999999E-5</v>
       </c>
       <c r="K32" s="4">
         <v>-1.469E-2</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>3.0300000000000002E-13</v>
       </c>
       <c r="M32" s="4">
@@ -34332,7 +34324,7 @@
       <c r="G33" s="4">
         <v>-8.5999999999999998E-4</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>4.1100000000000003E-5</v>
       </c>
       <c r="I33" s="4">
@@ -34377,7 +34369,7 @@
       <c r="G34" s="4">
         <v>-1E-3</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>2.3E-6</v>
       </c>
       <c r="I34" s="4">
@@ -34422,7 +34414,7 @@
       <c r="G35" s="4">
         <v>-1.08E-3</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>2.8000000000000002E-7</v>
       </c>
       <c r="I35" s="4">
@@ -34467,7 +34459,7 @@
       <c r="G36" s="4">
         <v>2.0839999999999999E-3</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>4.8300000000000001E-23</v>
       </c>
       <c r="I36" s="4">
@@ -34512,7 +34504,7 @@
       <c r="G37" s="4">
         <v>1.291E-3</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>8.5700000000000004E-10</v>
       </c>
       <c r="I37" s="4">
@@ -34557,7 +34549,7 @@
       <c r="G38" s="4">
         <v>2.7880000000000001E-3</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>5.2100000000000002E-40</v>
       </c>
       <c r="I38" s="4">
@@ -34569,7 +34561,7 @@
       <c r="K38" s="4">
         <v>-1.337E-2</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>3.0300000000000001E-11</v>
       </c>
       <c r="M38" s="4">
@@ -34602,7 +34594,7 @@
       <c r="G39" s="4">
         <v>8.2399999999999997E-4</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>8.9699999999999998E-5</v>
       </c>
       <c r="I39" s="4">
@@ -34647,7 +34639,7 @@
       <c r="G40" s="4">
         <v>-1.41E-3</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <v>2.25E-11</v>
       </c>
       <c r="I40" s="4">
@@ -34659,7 +34651,7 @@
       <c r="K40" s="4">
         <v>9.8469999999999999E-3</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="4">
         <v>1.15E-6</v>
       </c>
       <c r="M40" s="4">
@@ -34692,7 +34684,7 @@
       <c r="G41" s="4">
         <v>-3.29E-3</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>5.49E-55</v>
       </c>
       <c r="I41" s="4">
@@ -34704,7 +34696,7 @@
       <c r="K41" s="4">
         <v>8.9040000000000005E-3</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="4">
         <v>8.9500000000000007E-6</v>
       </c>
       <c r="M41" s="4">
@@ -34737,7 +34729,7 @@
       <c r="G42" s="4">
         <v>2.3530000000000001E-3</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>5.4100000000000002E-29</v>
       </c>
       <c r="I42" s="4">
@@ -34782,7 +34774,7 @@
       <c r="G43" s="4">
         <v>-1.2899999999999999E-3</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>8.3500000000000001E-10</v>
       </c>
       <c r="I43" s="4">
@@ -34833,7 +34825,7 @@
       <c r="I44" s="4">
         <v>-9.2000000000000003E-4</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>-9.7999999999999997E-5</v>
       </c>
       <c r="K44" s="4">
@@ -34872,7 +34864,7 @@
       <c r="G45" s="4">
         <v>-8.4999999999999995E-4</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <v>5.1900000000000001E-5</v>
       </c>
       <c r="I45" s="4">
@@ -34917,7 +34909,7 @@
       <c r="G46" s="4">
         <v>2.4020000000000001E-3</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <v>3.5000000000000003E-30</v>
       </c>
       <c r="I46" s="4">
@@ -34962,7 +34954,7 @@
       <c r="G47" s="4">
         <v>1.823E-3</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <v>4.9100000000000001E-18</v>
       </c>
       <c r="I47" s="4">
@@ -34974,7 +34966,7 @@
       <c r="K47" s="4">
         <v>-8.4600000000000005E-3</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="M47" s="4">
@@ -35007,7 +34999,7 @@
       <c r="G48" s="4">
         <v>2.552E-3</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <v>8.6499999999999998E-34</v>
       </c>
       <c r="I48" s="4">
@@ -35019,7 +35011,7 @@
       <c r="K48" s="4">
         <v>-1.46E-2</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>6.2699999999999995E-13</v>
       </c>
       <c r="M48" s="4">
@@ -35052,7 +35044,7 @@
       <c r="G49" s="4">
         <v>-1.17E-3</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>2.6899999999999999E-8</v>
       </c>
       <c r="I49" s="4">
@@ -35064,7 +35056,7 @@
       <c r="K49" s="4">
         <v>1.1557E-2</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>7.4700000000000001E-9</v>
       </c>
       <c r="M49" s="4">
@@ -35097,7 +35089,7 @@
       <c r="G50" s="4">
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="4">
         <v>2.0299999999999999E-5</v>
       </c>
       <c r="I50" s="4">
@@ -35142,7 +35134,7 @@
       <c r="G51" s="4">
         <v>2.1580000000000002E-3</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="4">
         <v>1.29E-24</v>
       </c>
       <c r="I51" s="4">
@@ -35187,7 +35179,7 @@
       <c r="G52" s="4">
         <v>8.6300000000000005E-4</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <v>4.1499999999999999E-5</v>
       </c>
       <c r="I52" s="4">
@@ -35235,7 +35227,7 @@
       <c r="H53" s="4">
         <v>2.1939E-2</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="4">
         <v>6.9800000000000003E-5</v>
       </c>
       <c r="J53" s="4">
@@ -35244,7 +35236,7 @@
       <c r="K53" s="4">
         <v>8.5649999999999997E-3</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>2.02E-5</v>
       </c>
       <c r="M53" s="4">
@@ -35277,7 +35269,7 @@
       <c r="G54" s="4">
         <v>1.4920000000000001E-3</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="4">
         <v>1.3600000000000001E-12</v>
       </c>
       <c r="I54" s="4">
@@ -35289,7 +35281,7 @@
       <c r="K54" s="4">
         <v>-1.3480000000000001E-2</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="4">
         <v>1.7199999999999999E-11</v>
       </c>
       <c r="M54" s="4">
@@ -35322,7 +35314,7 @@
       <c r="G55" s="4">
         <v>-2.0600000000000002E-3</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
         <v>1.3799999999999999E-22</v>
       </c>
       <c r="I55" s="4">
@@ -35367,7 +35359,7 @@
       <c r="G56" s="4">
         <v>-1.2800000000000001E-3</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <v>1.4200000000000001E-9</v>
       </c>
       <c r="I56" s="4">
@@ -35457,7 +35449,7 @@
       <c r="G58" s="4">
         <v>3.0119999999999999E-3</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="4">
         <v>2.0299999999999998E-46</v>
       </c>
       <c r="I58" s="4">
@@ -35469,7 +35461,7 @@
       <c r="K58" s="4">
         <v>-1.5779999999999999E-2</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="4">
         <v>5.51E-15</v>
       </c>
       <c r="M58" s="4">
@@ -35502,7 +35494,7 @@
       <c r="G59" s="4">
         <v>1.2620000000000001E-3</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="4">
         <v>1.9500000000000001E-9</v>
       </c>
       <c r="I59" s="4">
@@ -35514,7 +35506,7 @@
       <c r="K59" s="4">
         <v>1.0370000000000001E-2</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="4">
         <v>2.9400000000000001E-7</v>
       </c>
       <c r="M59" s="4">
@@ -35547,7 +35539,7 @@
       <c r="G60" s="4">
         <v>-8.4000000000000003E-4</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="4">
         <v>6.1500000000000004E-5</v>
       </c>
       <c r="I60" s="4">
@@ -35559,7 +35551,7 @@
       <c r="K60" s="4">
         <v>-1.073E-2</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="4">
         <v>1.3E-7</v>
       </c>
       <c r="M60" s="4">
@@ -35592,7 +35584,7 @@
       <c r="G61" s="4">
         <v>-1.2899999999999999E-3</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="4">
         <v>7.9299999999999995E-10</v>
       </c>
       <c r="I61" s="4">
@@ -35649,7 +35641,7 @@
       <c r="K62" s="4">
         <v>-9.8200000000000006E-3</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="4">
         <v>1.2699999999999999E-6</v>
       </c>
       <c r="M62" s="4">
@@ -35694,7 +35686,7 @@
       <c r="K63" s="4">
         <v>-8.26E-3</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="4">
         <v>4.9499999999999997E-5</v>
       </c>
       <c r="M63" s="4">
@@ -35727,7 +35719,7 @@
       <c r="G64" s="4">
         <v>1.897E-3</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="4">
         <v>2.1999999999999998E-19</v>
       </c>
       <c r="I64" s="4">
@@ -35772,7 +35764,7 @@
       <c r="G65" s="4">
         <v>1.8760000000000001E-3</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <v>5.1100000000000002E-19</v>
       </c>
       <c r="I65" s="4">
@@ -35862,7 +35854,7 @@
       <c r="G67" s="4">
         <v>-2.1800000000000001E-3</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="4">
         <v>3.6800000000000001E-25</v>
       </c>
       <c r="I67" s="4">
@@ -35907,7 +35899,7 @@
       <c r="G68" s="4">
         <v>1.2669999999999999E-3</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <v>1.5799999999999999E-9</v>
       </c>
       <c r="I68" s="4">
@@ -35952,7 +35944,7 @@
       <c r="G69" s="4">
         <v>2.5959999999999998E-3</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <v>6.1799999999999998E-35</v>
       </c>
       <c r="I69" s="4">
@@ -35997,7 +35989,7 @@
       <c r="G70" s="4">
         <v>-2.4399999999999999E-3</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="4">
         <v>5.1699999999999999E-31</v>
       </c>
       <c r="I70" s="4">
@@ -36042,7 +36034,7 @@
       <c r="G71" s="4">
         <v>-2.4399999999999999E-3</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="4">
         <v>3.9199999999999998E-31</v>
       </c>
       <c r="I71" s="4">
@@ -36054,7 +36046,7 @@
       <c r="K71" s="4">
         <v>1.2161E-2</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="4">
         <v>2.23E-9</v>
       </c>
       <c r="M71" s="4">
@@ -36087,7 +36079,7 @@
       <c r="G72" s="4">
         <v>1.4170000000000001E-3</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="4">
         <v>1.68E-11</v>
       </c>
       <c r="I72" s="4">
@@ -36132,7 +36124,7 @@
       <c r="G73" s="4">
         <v>-1.6999999999999999E-3</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="4">
         <v>6.1400000000000002E-16</v>
       </c>
       <c r="I73" s="4">
@@ -36177,7 +36169,7 @@
       <c r="G74" s="4">
         <v>-2.2300000000000002E-3</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="4">
         <v>4.1299999999999998E-26</v>
       </c>
       <c r="I74" s="4">
@@ -36222,7 +36214,7 @@
       <c r="G75" s="4">
         <v>2.6549999999999998E-3</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="4">
         <v>1.8999999999999999E-36</v>
       </c>
       <c r="I75" s="4">
@@ -36273,7 +36265,7 @@
       <c r="I76" s="4">
         <v>-9.1E-4</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="4">
         <v>-8.7999999999999998E-5</v>
       </c>
       <c r="K76" s="4">
@@ -36312,7 +36304,7 @@
       <c r="G77" s="4">
         <v>2.1779999999999998E-3</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="4">
         <v>4.5599999999999999E-25</v>
       </c>
       <c r="I77" s="4">
@@ -36357,7 +36349,7 @@
       <c r="G78" s="4">
         <v>1.7539999999999999E-3</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="4">
         <v>8.3699999999999997E-17</v>
       </c>
       <c r="I78" s="4">
@@ -36414,7 +36406,7 @@
       <c r="K79" s="4">
         <v>1.2470999999999999E-2</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79" s="4">
         <v>6.59E-10</v>
       </c>
       <c r="M79" s="4">
@@ -36447,7 +36439,7 @@
       <c r="G80" s="4">
         <v>-1.9499999999999999E-3</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="4">
         <v>2.33E-20</v>
       </c>
       <c r="I80" s="4">
@@ -36459,7 +36451,7 @@
       <c r="K80" s="4">
         <v>-8.9899999999999997E-3</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="4">
         <v>9.9399999999999997E-6</v>
       </c>
       <c r="M80" s="4">
@@ -36492,7 +36484,7 @@
       <c r="G81" s="4">
         <v>3.2399999999999998E-3</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="4">
         <v>2.11E-53</v>
       </c>
       <c r="I81" s="4">
@@ -36537,7 +36529,7 @@
       <c r="G82" s="4">
         <v>3.748E-3</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="4">
         <v>7.1100000000000004E-71</v>
       </c>
       <c r="I82" s="4">
@@ -36585,7 +36577,7 @@
       <c r="H83" s="4">
         <v>2.1758E-2</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I83" s="4">
         <v>7.0400000000000004E-5</v>
       </c>
       <c r="J83" s="4">
@@ -36639,7 +36631,7 @@
       <c r="K84" s="4">
         <v>1.2511E-2</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84" s="4">
         <v>5.5500000000000005E-10</v>
       </c>
       <c r="M84" s="4">
@@ -36672,7 +36664,7 @@
       <c r="G85" s="4">
         <v>-2.5300000000000001E-3</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="4">
         <v>3.06E-33</v>
       </c>
       <c r="I85" s="4">
@@ -36717,7 +36709,7 @@
       <c r="G86" s="4">
         <v>2.1220000000000002E-3</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <v>6.6400000000000003E-24</v>
       </c>
       <c r="I86" s="4">
@@ -36729,7 +36721,7 @@
       <c r="K86" s="4">
         <v>-8.2100000000000003E-3</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86" s="4">
         <v>4.57E-5</v>
       </c>
       <c r="M86" s="4">
@@ -36762,7 +36754,7 @@
       <c r="G87" s="4">
         <v>-8.4000000000000003E-4</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="4">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="I87" s="4">
@@ -36852,7 +36844,7 @@
       <c r="G89" s="4">
         <v>3.656E-3</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="4">
         <v>2.4E-67</v>
       </c>
       <c r="I89" s="4">
@@ -36864,7 +36856,7 @@
       <c r="K89" s="4">
         <v>-1.094E-2</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89" s="4">
         <v>8.1100000000000005E-8</v>
       </c>
       <c r="M89" s="4">
@@ -36897,7 +36889,7 @@
       <c r="G90" s="4">
         <v>1.524E-3</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="4">
         <v>4.39E-13</v>
       </c>
       <c r="I90" s="4">
@@ -36942,7 +36934,7 @@
       <c r="G91" s="4">
         <v>1.07E-3</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="4">
         <v>3.6899999999999998E-7</v>
       </c>
       <c r="I91" s="4">
@@ -36954,7 +36946,7 @@
       <c r="K91" s="4">
         <v>-1.149E-2</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="4">
         <v>9.5399999999999997E-9</v>
       </c>
       <c r="M91" s="4">
@@ -36987,7 +36979,7 @@
       <c r="G92" s="4">
         <v>-2.47E-3</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="4">
         <v>7.8000000000000003E-32</v>
       </c>
       <c r="I92" s="4">
@@ -37032,7 +37024,7 @@
       <c r="G93" s="4">
         <v>-2.5100000000000001E-3</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="4">
         <v>7.2499999999999999E-33</v>
       </c>
       <c r="I93" s="4">
@@ -37077,7 +37069,7 @@
       <c r="G94" s="4">
         <v>-2.5400000000000002E-3</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="4">
         <v>1.26E-33</v>
       </c>
       <c r="I94" s="4">
@@ -37167,7 +37159,7 @@
       <c r="G96" s="4">
         <v>-4.2300000000000003E-3</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="4">
         <v>5.7500000000000004E-90</v>
       </c>
       <c r="I96" s="4">
@@ -37179,7 +37171,7 @@
       <c r="K96" s="4">
         <v>-2.0369999999999999E-2</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96" s="4">
         <v>1.04E-23</v>
       </c>
       <c r="M96" s="4">
@@ -37212,7 +37204,7 @@
       <c r="G97" s="4">
         <v>-2.1800000000000001E-3</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="4">
         <v>4.07E-25</v>
       </c>
       <c r="I97" s="4">
@@ -37224,7 +37216,7 @@
       <c r="K97" s="4">
         <v>8.0020000000000004E-3</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97" s="4">
         <v>7.86E-5</v>
       </c>
       <c r="M97" s="4">
@@ -37257,7 +37249,7 @@
       <c r="G98" s="4">
         <v>2.4740000000000001E-3</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="4">
         <v>6.6200000000000002E-32</v>
       </c>
       <c r="I98" s="4">
@@ -37302,7 +37294,7 @@
       <c r="G99" s="4">
         <v>-9.7999999999999997E-4</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="4">
         <v>3.5700000000000001E-6</v>
       </c>
       <c r="I99" s="4">
@@ -37347,7 +37339,7 @@
       <c r="G100" s="4">
         <v>1.0009999999999999E-3</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100" s="4">
         <v>1.9800000000000001E-6</v>
       </c>
       <c r="I100" s="4">
@@ -37359,7 +37351,7 @@
       <c r="K100" s="4">
         <v>1.3332E-2</v>
       </c>
-      <c r="L100" s="5">
+      <c r="L100" s="4">
         <v>4.1999999999999997E-11</v>
       </c>
       <c r="M100" s="4">
@@ -37392,7 +37384,7 @@
       <c r="G101" s="4">
         <v>-4.1799999999999997E-3</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="4">
         <v>4.1400000000000003E-88</v>
       </c>
       <c r="I101" s="4">
@@ -37404,7 +37396,7 @@
       <c r="K101" s="4">
         <v>1.7877000000000001E-2</v>
       </c>
-      <c r="L101" s="5">
+      <c r="L101" s="4">
         <v>1.06E-19</v>
       </c>
       <c r="M101" s="4">
@@ -37482,7 +37474,7 @@
       <c r="G103" s="4">
         <v>-4.1700000000000001E-3</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="4">
         <v>3.1299999999999999E-87</v>
       </c>
       <c r="I103" s="4">
@@ -37527,7 +37519,7 @@
       <c r="G104" s="4">
         <v>2.6120000000000002E-3</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="4">
         <v>2.37E-35</v>
       </c>
       <c r="I104" s="4">
@@ -37572,7 +37564,7 @@
       <c r="G105" s="4">
         <v>-3.46E-3</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="4">
         <v>1.21E-60</v>
       </c>
       <c r="I105" s="4">
@@ -37584,7 +37576,7 @@
       <c r="K105" s="4">
         <v>-8.5000000000000006E-3</v>
       </c>
-      <c r="L105" s="5">
+      <c r="L105" s="4">
         <v>2.8900000000000001E-5</v>
       </c>
       <c r="M105" s="4">
@@ -37617,7 +37609,7 @@
       <c r="G106" s="4">
         <v>1.9840000000000001E-3</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="4">
         <v>4.5499999999999998E-21</v>
       </c>
       <c r="I106" s="4">
@@ -37662,7 +37654,7 @@
       <c r="G107" s="4">
         <v>-3.6600000000000001E-3</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="4">
         <v>1.5900000000000001E-67</v>
       </c>
       <c r="I107" s="4">
@@ -37674,7 +37666,7 @@
       <c r="K107" s="4">
         <v>-1.056E-2</v>
       </c>
-      <c r="L107" s="5">
+      <c r="L107" s="4">
         <v>2.04E-7</v>
       </c>
       <c r="M107" s="4">
@@ -37707,7 +37699,7 @@
       <c r="G108" s="4">
         <v>1.653E-3</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="4">
         <v>4.1599999999999998E-15</v>
       </c>
       <c r="I108" s="4">
@@ -37764,7 +37756,7 @@
       <c r="K109" s="4">
         <v>-8.0700000000000008E-3</v>
       </c>
-      <c r="L109" s="5">
+      <c r="L109" s="4">
         <v>7.0900000000000002E-5</v>
       </c>
       <c r="M109" s="4">
@@ -37797,7 +37789,7 @@
       <c r="G110" s="4">
         <v>1.704E-3</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="4">
         <v>5.4900000000000005E-16</v>
       </c>
       <c r="I110" s="4">
@@ -37854,7 +37846,7 @@
       <c r="K111" s="4">
         <v>9.6749999999999996E-3</v>
       </c>
-      <c r="L111" s="5">
+      <c r="L111" s="4">
         <v>1.7400000000000001E-6</v>
       </c>
       <c r="M111" s="4">
@@ -37887,7 +37879,7 @@
       <c r="G112" s="4">
         <v>-8.1999999999999998E-4</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="4">
         <v>9.6399999999999999E-5</v>
       </c>
       <c r="I112" s="4">
@@ -37977,7 +37969,7 @@
       <c r="G114" s="4">
         <v>1.895E-3</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="4">
         <v>2.0199999999999999E-19</v>
       </c>
       <c r="I114" s="4">
@@ -37989,7 +37981,7 @@
       <c r="K114" s="4">
         <v>-1.4069999999999999E-2</v>
       </c>
-      <c r="L114" s="5">
+      <c r="L114" s="4">
         <v>2.2600000000000001E-12</v>
       </c>
       <c r="M114" s="4">
@@ -38022,7 +38014,7 @@
       <c r="G115" s="4">
         <v>-3.0400000000000002E-3</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115" s="4">
         <v>3.31E-47</v>
       </c>
       <c r="I115" s="4">
@@ -38034,7 +38026,7 @@
       <c r="K115" s="4">
         <v>1.1421000000000001E-2</v>
       </c>
-      <c r="L115" s="5">
+      <c r="L115" s="4">
         <v>1.6400000000000001E-8</v>
       </c>
       <c r="M115" s="4">
@@ -38067,7 +38059,7 @@
       <c r="G116" s="4">
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="4">
         <v>2.8000000000000001E-14</v>
       </c>
       <c r="I116" s="4">
@@ -38079,7 +38071,7 @@
       <c r="K116" s="4">
         <v>-1.149E-2</v>
       </c>
-      <c r="L116" s="5">
+      <c r="L116" s="4">
         <v>1.5600000000000001E-8</v>
       </c>
       <c r="M116" s="4">
@@ -38112,7 +38104,7 @@
       <c r="G117" s="4">
         <v>-1.92E-3</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="4">
         <v>5.6099999999999997E-20</v>
       </c>
       <c r="I117" s="4">
@@ -38157,7 +38149,7 @@
       <c r="G118" s="4">
         <v>2.7859999999999998E-3</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="4">
         <v>5.8200000000000004E-40</v>
       </c>
       <c r="I118" s="4">
@@ -38169,7 +38161,7 @@
       <c r="K118" s="4">
         <v>-9.0399999999999994E-3</v>
       </c>
-      <c r="L118" s="5">
+      <c r="L118" s="4">
         <v>8.2900000000000002E-6</v>
       </c>
       <c r="M118" s="4">
@@ -38202,7 +38194,7 @@
       <c r="G119" s="4">
         <v>3.2100000000000002E-3</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="4">
         <v>1.69E-52</v>
       </c>
       <c r="I119" s="4">
@@ -38214,7 +38206,7 @@
       <c r="K119" s="4">
         <v>-1.1610000000000001E-2</v>
       </c>
-      <c r="L119" s="5">
+      <c r="L119" s="4">
         <v>9.1000000000000004E-9</v>
       </c>
       <c r="M119" s="4">
@@ -38247,7 +38239,7 @@
       <c r="G120" s="4">
         <v>-1.7700000000000001E-3</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="4">
         <v>4.1300000000000001E-17</v>
       </c>
       <c r="I120" s="4">
@@ -38292,7 +38284,7 @@
       <c r="G121" s="4">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="4">
         <v>1.14E-25</v>
       </c>
       <c r="I121" s="4">
@@ -38304,7 +38296,7 @@
       <c r="K121" s="4">
         <v>8.5599999999999999E-3</v>
       </c>
-      <c r="L121" s="5">
+      <c r="L121" s="4">
         <v>2.26E-5</v>
       </c>
       <c r="M121" s="4">
@@ -38343,7 +38335,7 @@
       <c r="I122" s="4">
         <v>-9.1E-4</v>
       </c>
-      <c r="J122" s="5">
+      <c r="J122" s="4">
         <v>-8.0000000000000007E-5</v>
       </c>
       <c r="K122" s="4">
@@ -38382,7 +38374,7 @@
       <c r="G123" s="4">
         <v>1.8370000000000001E-3</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="4">
         <v>2.3999999999999999E-18</v>
       </c>
       <c r="I123" s="4">
@@ -38394,7 +38386,7 @@
       <c r="K123" s="4">
         <v>-1.1900000000000001E-2</v>
       </c>
-      <c r="L123" s="5">
+      <c r="L123" s="4">
         <v>3.0199999999999999E-9</v>
       </c>
       <c r="M123" s="4">
@@ -38427,7 +38419,7 @@
       <c r="G124" s="4">
         <v>-3.1700000000000001E-3</v>
       </c>
-      <c r="H124" s="5">
+      <c r="H124" s="4">
         <v>2.3499999999999999E-51</v>
       </c>
       <c r="I124" s="4">
@@ -38472,7 +38464,7 @@
       <c r="G125" s="4">
         <v>-2.14E-3</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H125" s="4">
         <v>3.23E-24</v>
       </c>
       <c r="I125" s="4">
@@ -38517,7 +38509,7 @@
       <c r="G126" s="4">
         <v>2.3259999999999999E-3</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="4">
         <v>2.2499999999999999E-28</v>
       </c>
       <c r="I126" s="4">
@@ -38574,7 +38566,7 @@
       <c r="K127" s="4">
         <v>9.1120000000000003E-3</v>
       </c>
-      <c r="L127" s="5">
+      <c r="L127" s="4">
         <v>6.5100000000000004E-6</v>
       </c>
       <c r="M127" s="4">
@@ -38607,7 +38599,7 @@
       <c r="G128" s="4">
         <v>2.15E-3</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128" s="4">
         <v>1.96E-24</v>
       </c>
       <c r="I128" s="4">
@@ -38619,7 +38611,7 @@
       <c r="K128" s="4">
         <v>-7.92E-3</v>
       </c>
-      <c r="L128" s="5">
+      <c r="L128" s="4">
         <v>9.8900000000000005E-5</v>
       </c>
       <c r="M128" s="4">
@@ -38652,7 +38644,7 @@
       <c r="G129" s="4">
         <v>-1.1299999999999999E-3</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="4">
         <v>8.3900000000000004E-8</v>
       </c>
       <c r="I129" s="4">
@@ -38697,7 +38689,7 @@
       <c r="G130" s="4">
         <v>-1.4E-3</v>
       </c>
-      <c r="H130" s="5">
+      <c r="H130" s="4">
         <v>2.5499999999999999E-11</v>
       </c>
       <c r="I130" s="4">
@@ -38742,7 +38734,7 @@
       <c r="G131" s="4">
         <v>2.7130000000000001E-3</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="4">
         <v>5.6999999999999999E-38</v>
       </c>
       <c r="I131" s="4">
@@ -38787,7 +38779,7 @@
       <c r="G132" s="4">
         <v>1.916E-3</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132" s="4">
         <v>7.6900000000000001E-20</v>
       </c>
       <c r="I132" s="4">
@@ -38832,7 +38824,7 @@
       <c r="G133" s="4">
         <v>2.3470000000000001E-3</v>
       </c>
-      <c r="H133" s="5">
+      <c r="H133" s="4">
         <v>7.3700000000000003E-29</v>
       </c>
       <c r="I133" s="4">
@@ -38844,7 +38836,7 @@
       <c r="K133" s="4">
         <v>-9.7199999999999995E-3</v>
       </c>
-      <c r="L133" s="5">
+      <c r="L133" s="4">
         <v>1.9199999999999998E-6</v>
       </c>
       <c r="M133" s="4">
@@ -38877,7 +38869,7 @@
       <c r="G134" s="4">
         <v>-2.0999999999999999E-3</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="4">
         <v>2.8900000000000001E-23</v>
       </c>
       <c r="I134" s="4">
@@ -38922,7 +38914,7 @@
       <c r="G135" s="4">
         <v>-1.3799999999999999E-3</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H135" s="4">
         <v>4.9799999999999999E-11</v>
       </c>
       <c r="I135" s="4">
@@ -38967,7 +38959,7 @@
       <c r="G136" s="4">
         <v>1.237E-3</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H136" s="4">
         <v>4.7500000000000003E-9</v>
       </c>
       <c r="I136" s="4">
@@ -39012,7 +39004,7 @@
       <c r="G137" s="4">
         <v>-8.8999999999999995E-4</v>
       </c>
-      <c r="H137" s="5">
+      <c r="H137" s="4">
         <v>2.2099999999999998E-5</v>
       </c>
       <c r="I137" s="4">
@@ -39057,7 +39049,7 @@
       <c r="G138" s="4">
         <v>-2.3400000000000001E-3</v>
       </c>
-      <c r="H138" s="5">
+      <c r="H138" s="4">
         <v>9.63E-29</v>
       </c>
       <c r="I138" s="4">
@@ -39102,7 +39094,7 @@
       <c r="G139" s="4">
         <v>1.0510000000000001E-3</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139" s="4">
         <v>5.8899999999999999E-7</v>
       </c>
       <c r="I139" s="4">
@@ -39147,7 +39139,7 @@
       <c r="G140" s="4">
         <v>2.2929999999999999E-3</v>
       </c>
-      <c r="H140" s="5">
+      <c r="H140" s="4">
         <v>1.2300000000000001E-27</v>
       </c>
       <c r="I140" s="4">
@@ -39159,7 +39151,7 @@
       <c r="K140" s="4">
         <v>-1.72E-2</v>
       </c>
-      <c r="L140" s="5">
+      <c r="L140" s="4">
         <v>1.6900000000000001E-17</v>
       </c>
       <c r="M140" s="4">
@@ -39192,7 +39184,7 @@
       <c r="G141" s="4">
         <v>-1.25E-3</v>
       </c>
-      <c r="H141" s="5">
+      <c r="H141" s="4">
         <v>2.8699999999999998E-9</v>
       </c>
       <c r="I141" s="4">
@@ -39237,7 +39229,7 @@
       <c r="G142" s="4">
         <v>-9.8999999999999999E-4</v>
       </c>
-      <c r="H142" s="5">
+      <c r="H142" s="4">
         <v>2.4600000000000002E-6</v>
       </c>
       <c r="I142" s="4">
@@ -39282,7 +39274,7 @@
       <c r="G143" s="4">
         <v>1.1739999999999999E-3</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143" s="4">
         <v>2.4599999999999999E-8</v>
       </c>
       <c r="I143" s="4">
@@ -39327,7 +39319,7 @@
       <c r="G144" s="4">
         <v>2.0170000000000001E-3</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H144" s="4">
         <v>9.9700000000000009E-22</v>
       </c>
       <c r="I144" s="4">
@@ -39372,7 +39364,7 @@
       <c r="G145" s="4">
         <v>1.013E-3</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145" s="4">
         <v>1.5E-6</v>
       </c>
       <c r="I145" s="4">
@@ -39417,7 +39409,7 @@
       <c r="G146" s="4">
         <v>-1.83E-3</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146" s="4">
         <v>3.2300000000000001E-18</v>
       </c>
       <c r="I146" s="4">
@@ -39429,7 +39421,7 @@
       <c r="K146" s="4">
         <v>1.3074000000000001E-2</v>
       </c>
-      <c r="L146" s="5">
+      <c r="L146" s="4">
         <v>6.6599999999999995E-11</v>
       </c>
       <c r="M146" s="4">
@@ -39462,7 +39454,7 @@
       <c r="G147" s="4">
         <v>-1.25E-3</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147" s="4">
         <v>3.2599999999999999E-9</v>
       </c>
       <c r="I147" s="4">
@@ -39519,7 +39511,7 @@
       <c r="K148" s="4">
         <v>-8.1300000000000001E-3</v>
       </c>
-      <c r="L148" s="5">
+      <c r="L148" s="4">
         <v>6.6600000000000006E-5</v>
       </c>
       <c r="M148" s="4">
@@ -39552,7 +39544,7 @@
       <c r="G149" s="4">
         <v>1.8580000000000001E-3</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149" s="4">
         <v>1.08E-18</v>
       </c>
       <c r="I149" s="4">
@@ -39600,7 +39592,7 @@
       <c r="H150" s="4">
         <v>4.3175999999999999E-2</v>
       </c>
-      <c r="I150" s="5">
+      <c r="I150" s="4">
         <v>1.31E-5</v>
       </c>
       <c r="J150" s="4">
@@ -39642,7 +39634,7 @@
       <c r="G151" s="4">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="4">
         <v>6.0300000000000004E-16</v>
       </c>
       <c r="I151" s="4">
@@ -39687,7 +39679,7 @@
       <c r="G152" s="4">
         <v>2.9369999999999999E-3</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152" s="4">
         <v>2.59E-44</v>
       </c>
       <c r="I152" s="4">
@@ -39699,7 +39691,7 @@
       <c r="K152" s="4">
         <v>-8.9099999999999995E-3</v>
       </c>
-      <c r="L152" s="5">
+      <c r="L152" s="4">
         <v>9.0399999999999998E-6</v>
       </c>
       <c r="M152" s="4">
@@ -39732,7 +39724,7 @@
       <c r="G153" s="4">
         <v>4.0229999999999997E-3</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="4">
         <v>1.8499999999999999E-81</v>
       </c>
       <c r="I153" s="4">
@@ -39777,7 +39769,7 @@
       <c r="G154" s="4">
         <v>-8.7000000000000001E-4</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H154" s="4">
         <v>3.7100000000000001E-5</v>
       </c>
       <c r="I154" s="4">
@@ -39828,13 +39820,13 @@
       <c r="I155" s="4">
         <v>-8.8000000000000003E-4</v>
       </c>
-      <c r="J155" s="5">
+      <c r="J155" s="4">
         <v>-5.5999999999999999E-5</v>
       </c>
       <c r="K155" s="4">
         <v>1.0713E-2</v>
       </c>
-      <c r="L155" s="5">
+      <c r="L155" s="4">
         <v>1.17E-7</v>
       </c>
       <c r="M155" s="4">
@@ -39867,7 +39859,7 @@
       <c r="G156" s="4">
         <v>2.0860000000000002E-3</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156" s="4">
         <v>3.8699999999999998E-23</v>
       </c>
       <c r="I156" s="4">
@@ -39924,7 +39916,7 @@
       <c r="K157" s="4">
         <v>-8.2199999999999999E-3</v>
       </c>
-      <c r="L157" s="5">
+      <c r="L157" s="4">
         <v>5.0399999999999999E-5</v>
       </c>
       <c r="M157" s="4">
@@ -39957,7 +39949,7 @@
       <c r="G158" s="4">
         <v>-2.8700000000000002E-3</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158" s="4">
         <v>1.8899999999999999E-42</v>
       </c>
       <c r="I158" s="4">
@@ -40002,7 +39994,7 @@
       <c r="G159" s="4">
         <v>2.6329999999999999E-3</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="4">
         <v>7.6399999999999996E-36</v>
       </c>
       <c r="I159" s="4">
@@ -40092,7 +40084,7 @@
       <c r="G161" s="4">
         <v>1.642E-3</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="4">
         <v>5.4300000000000003E-15</v>
       </c>
       <c r="I161" s="4">
@@ -40104,7 +40096,7 @@
       <c r="K161" s="4">
         <v>-1.204E-2</v>
       </c>
-      <c r="L161" s="5">
+      <c r="L161" s="4">
         <v>6.3600000000000004E-9</v>
       </c>
       <c r="M161" s="4">
@@ -40137,7 +40129,7 @@
       <c r="G162" s="4">
         <v>1.4E-3</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162" s="4">
         <v>2.9699999999999998E-11</v>
       </c>
       <c r="I162" s="4">
@@ -40155,7 +40147,7 @@
       <c r="M162" s="4">
         <v>-7.9799999999999992E-3</v>
       </c>
-      <c r="N162" s="5">
+      <c r="N162" s="4">
         <v>-6.1E-6</v>
       </c>
       <c r="O162" s="4"/>
@@ -40227,7 +40219,7 @@
       <c r="G164" s="4">
         <v>-1E-3</v>
       </c>
-      <c r="H164" s="5">
+      <c r="H164" s="4">
         <v>1.9300000000000002E-6</v>
       </c>
       <c r="I164" s="4">
@@ -40272,7 +40264,7 @@
       <c r="G165" s="4">
         <v>1.382E-3</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165" s="4">
         <v>5.2199999999999998E-11</v>
       </c>
       <c r="I165" s="4">
@@ -40317,7 +40309,7 @@
       <c r="G166" s="4">
         <v>-3.2599999999999999E-3</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166" s="4">
         <v>3.6600000000000001E-54</v>
       </c>
       <c r="I166" s="4">
@@ -40407,7 +40399,7 @@
       <c r="G168" s="4">
         <v>6.7889999999999999E-3</v>
       </c>
-      <c r="H168" s="5">
+      <c r="H168" s="4">
         <v>1.5E-228</v>
       </c>
       <c r="I168" s="4">
@@ -40419,7 +40411,7 @@
       <c r="K168" s="4">
         <v>-1.0540000000000001E-2</v>
       </c>
-      <c r="L168" s="5">
+      <c r="L168" s="4">
         <v>1.9299999999999999E-7</v>
       </c>
       <c r="M168" s="4">
@@ -40497,7 +40489,7 @@
       <c r="G170" s="4">
         <v>9.1600000000000004E-4</v>
       </c>
-      <c r="H170" s="5">
+      <c r="H170" s="4">
         <v>1.36E-5</v>
       </c>
       <c r="I170" s="4">
@@ -40554,7 +40546,7 @@
       <c r="K171" s="4">
         <v>-8.2799999999999992E-3</v>
       </c>
-      <c r="L171" s="5">
+      <c r="L171" s="4">
         <v>3.4900000000000001E-5</v>
       </c>
       <c r="M171" s="4">
@@ -40587,7 +40579,7 @@
       <c r="G172" s="4">
         <v>-8.7000000000000001E-4</v>
       </c>
-      <c r="H172" s="5">
+      <c r="H172" s="4">
         <v>3.7700000000000002E-5</v>
       </c>
       <c r="I172" s="4">
@@ -40632,7 +40624,7 @@
       <c r="G173" s="4">
         <v>-2.4399999999999999E-3</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173" s="4">
         <v>4.1099999999999999E-31</v>
       </c>
       <c r="I173" s="4">
@@ -40650,7 +40642,7 @@
       <c r="M173" s="4">
         <v>-8.0499999999999999E-3</v>
       </c>
-      <c r="N173" s="5">
+      <c r="N173" s="4">
         <v>-9.7E-5</v>
       </c>
       <c r="O173" s="4"/>
@@ -40677,7 +40669,7 @@
       <c r="G174" s="4">
         <v>-3.7399999999999998E-3</v>
       </c>
-      <c r="H174" s="5">
+      <c r="H174" s="4">
         <v>1.1100000000000001E-70</v>
       </c>
       <c r="I174" s="4">
@@ -40722,7 +40714,7 @@
       <c r="G175" s="4">
         <v>2.1800000000000001E-3</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H175" s="4">
         <v>4.07E-25</v>
       </c>
       <c r="I175" s="4">
@@ -40767,7 +40759,7 @@
       <c r="G176" s="4">
         <v>-1.2700000000000001E-3</v>
       </c>
-      <c r="H176" s="5">
+      <c r="H176" s="4">
         <v>1.8400000000000001E-9</v>
       </c>
       <c r="I176" s="4">
@@ -40812,7 +40804,7 @@
       <c r="G177" s="4">
         <v>-3.0200000000000001E-3</v>
       </c>
-      <c r="H177" s="5">
+      <c r="H177" s="4">
         <v>8.8599999999999996E-47</v>
       </c>
       <c r="I177" s="4">
@@ -40824,7 +40816,7 @@
       <c r="K177" s="4">
         <v>1.1368E-2</v>
       </c>
-      <c r="L177" s="5">
+      <c r="L177" s="4">
         <v>1.77E-8</v>
       </c>
       <c r="M177" s="4">
@@ -40857,7 +40849,7 @@
       <c r="G178" s="4">
         <v>8.4699999999999999E-4</v>
       </c>
-      <c r="H178" s="5">
+      <c r="H178" s="4">
         <v>5.6100000000000002E-5</v>
       </c>
       <c r="I178" s="4">
@@ -40902,7 +40894,7 @@
       <c r="G179" s="4">
         <v>2.7899999999999999E-3</v>
       </c>
-      <c r="H179" s="5">
+      <c r="H179" s="4">
         <v>4.6299999999999997E-40</v>
       </c>
       <c r="I179" s="4">
@@ -40947,7 +40939,7 @@
       <c r="G180" s="4">
         <v>9.5E-4</v>
       </c>
-      <c r="H180" s="5">
+      <c r="H180" s="4">
         <v>6.5699999999999998E-6</v>
       </c>
       <c r="I180" s="4">
@@ -40992,7 +40984,7 @@
       <c r="G181" s="4">
         <v>-1.16E-3</v>
       </c>
-      <c r="H181" s="5">
+      <c r="H181" s="4">
         <v>3.7800000000000001E-8</v>
       </c>
       <c r="I181" s="4">
@@ -41037,7 +41029,7 @@
       <c r="G182" s="4">
         <v>3.0339999999999998E-3</v>
       </c>
-      <c r="H182" s="5">
+      <c r="H182" s="4">
         <v>4.2000000000000001E-47</v>
       </c>
       <c r="I182" s="4">
@@ -41082,7 +41074,7 @@
       <c r="G183" s="4">
         <v>4.9779999999999998E-3</v>
       </c>
-      <c r="H183" s="5">
+      <c r="H183" s="4">
         <v>1.5999999999999999E-123</v>
       </c>
       <c r="I183" s="4">
@@ -41094,7 +41086,7 @@
       <c r="K183" s="4">
         <v>-9.0699999999999999E-3</v>
       </c>
-      <c r="L183" s="5">
+      <c r="L183" s="4">
         <v>7.7800000000000001E-6</v>
       </c>
       <c r="M183" s="4">
@@ -41127,7 +41119,7 @@
       <c r="G184" s="4">
         <v>1.704E-3</v>
       </c>
-      <c r="H184" s="5">
+      <c r="H184" s="4">
         <v>6.0999999999999995E-16</v>
       </c>
       <c r="I184" s="4">
@@ -41172,7 +41164,7 @@
       <c r="G185" s="4">
         <v>-4.0200000000000001E-3</v>
       </c>
-      <c r="H185" s="5">
+      <c r="H185" s="4">
         <v>2.9899999999999999E-81</v>
       </c>
       <c r="I185" s="4">
@@ -41184,7 +41176,7 @@
       <c r="K185" s="4">
         <v>1.0907999999999999E-2</v>
       </c>
-      <c r="L185" s="5">
+      <c r="L185" s="4">
         <v>5.5999999999999999E-8</v>
       </c>
       <c r="M185" s="4">
@@ -41217,7 +41209,7 @@
       <c r="G186" s="4">
         <v>-1.09E-3</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="4">
         <v>2.1199999999999999E-7</v>
       </c>
       <c r="I186" s="4">
@@ -41262,7 +41254,7 @@
       <c r="G187" s="4">
         <v>5.7609999999999996E-3</v>
       </c>
-      <c r="H187" s="5">
+      <c r="H187" s="4">
         <v>3.2000000000000001E-165</v>
       </c>
       <c r="I187" s="4">
@@ -41274,7 +41266,7 @@
       <c r="K187" s="4">
         <v>-1.1599999999999999E-2</v>
       </c>
-      <c r="L187" s="5">
+      <c r="L187" s="4">
         <v>6.4300000000000003E-9</v>
       </c>
       <c r="M187" s="4">
@@ -41307,7 +41299,7 @@
       <c r="G188" s="4">
         <v>-1.5200000000000001E-3</v>
       </c>
-      <c r="H188" s="5">
+      <c r="H188" s="4">
         <v>4.9200000000000002E-13</v>
       </c>
       <c r="I188" s="4">
@@ -41319,7 +41311,7 @@
       <c r="K188" s="4">
         <v>1.2831E-2</v>
       </c>
-      <c r="L188" s="5">
+      <c r="L188" s="4">
         <v>2.1199999999999999E-10</v>
       </c>
       <c r="M188" s="4">
@@ -41352,7 +41344,7 @@
       <c r="G189" s="4">
         <v>-2.8300000000000001E-3</v>
       </c>
-      <c r="H189" s="5">
+      <c r="H189" s="4">
         <v>2.7099999999999999E-41</v>
       </c>
       <c r="I189" s="4">
@@ -41364,7 +41356,7 @@
       <c r="K189" s="4">
         <v>1.4284E-2</v>
       </c>
-      <c r="L189" s="5">
+      <c r="L189" s="4">
         <v>1.29E-12</v>
       </c>
       <c r="M189" s="4">
